--- a/project_datasets/Lexique - Data Analyst.xlsx
+++ b/project_datasets/Lexique - Data Analyst.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theo/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dastas/Documents/GitHub/ironhack-labs/project1-ironhack-payments/project_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB15CBAF-2576-B54A-B443-C252914C6EF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66E281E-A94A-524E-A2C7-6E4CCD62500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38480" yWindow="6180" windowWidth="28800" windowHeight="18480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="context - fees" sheetId="2" r:id="rId1"/>
-    <sheet name="context - cash request" sheetId="3" r:id="rId2"/>
+    <sheet name="consolidated_ironhack_data" sheetId="4" r:id="rId1"/>
+    <sheet name="context - fees" sheetId="2" r:id="rId2"/>
+    <sheet name="context - cash request" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -855,12 +856,278 @@
       <t xml:space="preserve"> : the payment incident still open but a SEPA direct debit is launched</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type of fee
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Possible values are :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- instant_payment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : fees for instant cash request (send directly after user's request, through SEPA Instant Payment) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- split_payment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : futures fees for split payment (in case of an incident, we'll soon offer the possibility to our users to reimburse in multiples installements)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- incident :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fees for failed reimbursement. Created after a failed direct debit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- postpone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: fees created when a user want to postpone the reimbursment of a CR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Status of the fees (= does the fees was successfully charged)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Possibles values are : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- confirmed : the user made an action who created a fee. It will normally get charged at the moment of the CR's reimbursement. In some rare cases, postpones are confirmed without being charges due to a commercial offer.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rejected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the last attempt to charge the fee failed.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cancelled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : fee was created and cancelled for some reasons. It's used to fix issues with fees but it mainly concern postpone fees who failed. We are charging the fees at the moment of the postpone request. If it failed, the postpone is not accepted and the reimbursement date still the same.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : fees were successfully charged</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Describe the reason of the incident fee.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 possibles values : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- rejected_direct_debit : fees created when user's bank rejects the first direct debit
+- month_delay_on_payment : fees created every month until the incident is closed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When the fee will be charge.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 possibles values : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- before : the fee should be charged at the moment of its creation
+- after : the fee should be charged at the moment of the CR's reimbursement</t>
+    </r>
+  </si>
+  <si>
+    <t>cash_request_amount</t>
+  </si>
+  <si>
+    <t>cohort_month</t>
+  </si>
+  <si>
+    <t>Year and Month where the CR was created.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,8 +1279,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,6 +1498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1360,57 +1665,63 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1426,9 +1737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1466,7 +1777,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1572,7 +1883,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1714,18 +2025,293 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB24256E-F8D5-5449-B0A7-9160FD724D9C}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="A1:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1B98DC-AA23-8848-AD79-7CDAFD86BA20}">
   <dimension ref="A1:B16376"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81801,12 +82387,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D6A73B-D1D2-0341-9B4F-0C7C22352858}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81839,7 +82425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
